--- a/app/data/tests/mozzarella_plan.xlsx
+++ b/app/data/tests/mozzarella_plan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="718">
   <si>
     <t xml:space="preserve">Отчет от</t>
   </si>
@@ -2142,6 +2142,9 @@
   </si>
   <si>
     <t xml:space="preserve">Длинная мойка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Качокавалло "Unagrande", 45%, 0,8 кг</t>
   </si>
   <si>
     <t xml:space="preserve">Вода: 25</t>
@@ -2197,7 +2200,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2272,6 +2275,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2365,7 +2373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2542,6 +2550,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -44254,7 +44266,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>664</v>
@@ -44465,7 +44477,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>694</v>
       </c>
     </row>
@@ -44491,7 +44503,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46338,7 +46350,7 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
@@ -52171,10 +52183,10 @@
   </sheetData>
   <conditionalFormatting sqref="B2:B108">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>#REF!&lt;&gt;#REF!</formula>
+      <formula>#ref!&lt;&gt;#ref!</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>#REF!&lt;&gt;#REF!</formula>
+      <formula>#ref!&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
@@ -56897,10 +56909,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -56909,38 +56921,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="9.09"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="34" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="B3" s="34" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="34" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="34" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="44" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2" s="44" t="n">
+        <v>-27.2</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -57011,7 +57003,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57021,52 +57013,52 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="34" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="34" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57081,22 +57073,22 @@
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="34" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="34" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -57345,10 +57337,10 @@
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="34" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
